--- a/data/beard.xlsx
+++ b/data/beard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\SensoryDataScience\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7680A091-F179-4AE6-A67E-91768D2ADF8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69715DB-D71F-449F-907F-0CCB177B6563}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{60D36B87-8154-4A1B-8F4C-5B0B40854B46}"/>
   </bookViews>
@@ -1454,8 +1454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEA428-7893-4362-9643-509FC933B47E}">
   <dimension ref="A1:B312"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
+      <selection activeCell="A312" sqref="A312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
